--- a/SPRAWOZDANIE/dane_podsumowanie.xlsx
+++ b/SPRAWOZDANIE/dane_podsumowanie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\politechnika\mel\Przejsciowka_A_Star\SPRAWOZDANIE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{865B9735-8F22-4DB2-8769-81E13F707177}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338BEE00-0299-4560-A27C-26B9FAE61DE7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1EE268C7-A948-4324-8221-D806E3051C24}"/>
   </bookViews>
@@ -135,10 +135,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _z_ł_-;\-* #,##0.00\ _z_ł_-;_-* &quot;-&quot;??\ _z_ł_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="0.0000%"/>
-    <numFmt numFmtId="171" formatCode="_-* #,##0.0000\ _z_ł_-;\-* #,##0.0000\ _z_ł_-;_-* &quot;-&quot;??\ _z_ł_-;_-@_-"/>
-    <numFmt numFmtId="172" formatCode="_-* #,##0.00000\ _z_ł_-;\-* #,##0.00000\ _z_ł_-;_-* &quot;-&quot;??\ _z_ł_-;_-@_-"/>
-    <numFmt numFmtId="173" formatCode="0.000000%"/>
+    <numFmt numFmtId="164" formatCode="0.0000%"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.0000\ _z_ł_-;\-* #,##0.0000\ _z_ł_-;_-* &quot;-&quot;??\ _z_ł_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00000\ _z_ł_-;\-* #,##0.00000\ _z_ł_-;_-* &quot;-&quot;??\ _z_ł_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="0.000000%"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -188,12 +188,12 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="173" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Dziesiętny" xfId="1" builtinId="3"/>
@@ -512,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407F90AF-FCDE-42A6-A1AD-6232D94CF78C}">
   <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
